--- a/InputsHeader.xlsx
+++ b/InputsHeader.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Header Name</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Sofia</t>
+  </si>
+  <si>
+    <t>Sofia1</t>
   </si>
   <si>
     <t>soffii25@gmail.com</t>
@@ -44,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -56,6 +59,9 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -85,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -97,6 +103,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -344,11 +353,11 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -356,7 +365,7 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
